--- a/test/xlsx/table.xlsx
+++ b/test/xlsx/table.xlsx
@@ -104,7 +104,6 @@
         <b/>
         <i val="0"/>
       </font>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <fill>

--- a/test/xlsx/table.xlsx
+++ b/test/xlsx/table.xlsx
@@ -5,7 +5,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Album List" sheetId="1" r:id="rId1" state="visible"/>
+    <sheet name="Album List" sheetId="1" r:id="rId2" state="visible"/>
   </sheets>
 </workbook>
 </file>
